--- a/WT Survey Data/Safety.xlsx
+++ b/WT Survey Data/Safety.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19e334791adf9b8f/Documents/GitHub/spring-2018-final-projects-bretbryan-wt/WT Survey Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bryan/Dropbox/GitHub/spring-2018-final-projects-bretbryan-wt/WT Survey Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{BB2F0040-ACA2-406F-B5C4-051D3F1C37DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{A168458F-069B-410C-A703-4546A0472A44}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AED8A7-11FF-2E4A-8CAE-190C84E2D518}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{0CABD6F8-4E4B-4EDA-9B71-236EA48F3355}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24660" windowHeight="15540" xr2:uid="{0CABD6F8-4E4B-4EDA-9B71-236EA48F3355}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="20">
   <si>
     <t>Conference</t>
   </si>
@@ -83,6 +83,9 @@
   <si>
     <t>Strongly Disagree</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -117,13 +120,127 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -433,15 +550,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C086008B-65DD-4BA5-866E-C5CCF7B58D57}">
-  <dimension ref="A1:N140"/>
+  <dimension ref="A1:P149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="15" width="12.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,17 +595,17 @@
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -520,7 +640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -548,17 +668,17 @@
       <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" t="s">
-        <v>11</v>
-      </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -586,17 +706,17 @@
       <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
       <c r="M4" t="s">
         <v>17</v>
       </c>
       <c r="N4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -624,39 +744,39 @@
       <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" t="s">
-        <v>11</v>
-      </c>
       <c r="M5" t="s">
         <v>11</v>
       </c>
       <c r="N5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L6" t="s">
-        <v>17</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="O5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L7" t="s">
-        <v>11</v>
-      </c>
+      <c r="O6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M7" t="s">
         <v>11</v>
       </c>
       <c r="N7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -685,18 +805,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L9" t="s">
-        <v>17</v>
-      </c>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -724,17 +844,17 @@
       <c r="J10" t="s">
         <v>11</v>
       </c>
-      <c r="L10" t="s">
-        <v>11</v>
-      </c>
       <c r="M10" t="s">
         <v>11</v>
       </c>
       <c r="N10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -763,7 +883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -791,17 +911,17 @@
       <c r="J12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="s">
-        <v>17</v>
-      </c>
       <c r="M12" t="s">
         <v>17</v>
       </c>
       <c r="N12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -830,7 +950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -859,18 +979,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L15" t="s">
-        <v>17</v>
-      </c>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M15" t="s">
         <v>17</v>
       </c>
       <c r="N15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="O15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -898,17 +1018,17 @@
       <c r="J16" t="s">
         <v>12</v>
       </c>
-      <c r="L16" t="s">
-        <v>17</v>
-      </c>
       <c r="M16" t="s">
         <v>17</v>
       </c>
       <c r="N16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -937,7 +1057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -965,17 +1085,17 @@
       <c r="J18" t="s">
         <v>11</v>
       </c>
-      <c r="L18" t="s">
-        <v>17</v>
-      </c>
       <c r="M18" t="s">
         <v>17</v>
       </c>
       <c r="N18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>11</v>
       </c>
@@ -1003,17 +1123,17 @@
       <c r="J19" t="s">
         <v>11</v>
       </c>
-      <c r="L19" t="s">
-        <v>11</v>
-      </c>
       <c r="M19" t="s">
         <v>11</v>
       </c>
       <c r="N19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>11</v>
       </c>
@@ -1041,39 +1161,39 @@
       <c r="J20" t="s">
         <v>11</v>
       </c>
-      <c r="L20" t="s">
-        <v>17</v>
-      </c>
       <c r="M20" t="s">
         <v>17</v>
       </c>
       <c r="N20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L21" t="s">
-        <v>17</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="O20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M21" t="s">
         <v>17</v>
       </c>
       <c r="N21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L22" t="s">
-        <v>17</v>
-      </c>
+      <c r="O21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M22" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -1101,17 +1221,17 @@
       <c r="J23" t="s">
         <v>11</v>
       </c>
-      <c r="L23" t="s">
-        <v>12</v>
-      </c>
       <c r="M23" t="s">
         <v>12</v>
       </c>
       <c r="N23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="O23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>11</v>
       </c>
@@ -1139,17 +1259,17 @@
       <c r="J24" t="s">
         <v>11</v>
       </c>
-      <c r="L24" t="s">
-        <v>11</v>
-      </c>
       <c r="M24" t="s">
         <v>11</v>
       </c>
       <c r="N24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="O24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>11</v>
       </c>
@@ -1177,28 +1297,28 @@
       <c r="J25" t="s">
         <v>11</v>
       </c>
-      <c r="L25" t="s">
-        <v>17</v>
-      </c>
       <c r="M25" t="s">
         <v>17</v>
       </c>
       <c r="N25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L26" t="s">
-        <v>17</v>
-      </c>
+      <c r="O25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M26" t="s">
         <v>17</v>
       </c>
       <c r="N26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -1226,17 +1346,17 @@
       <c r="J27" t="s">
         <v>11</v>
       </c>
-      <c r="L27" t="s">
-        <v>11</v>
-      </c>
       <c r="M27" t="s">
         <v>11</v>
       </c>
       <c r="N27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -1264,17 +1384,17 @@
       <c r="J28" t="s">
         <v>11</v>
       </c>
-      <c r="L28" t="s">
-        <v>12</v>
-      </c>
       <c r="M28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>11</v>
       </c>
@@ -1302,28 +1422,28 @@
       <c r="J29" t="s">
         <v>11</v>
       </c>
-      <c r="L29" t="s">
-        <v>11</v>
-      </c>
       <c r="M29" t="s">
         <v>11</v>
       </c>
       <c r="N29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L30" t="s">
-        <v>11</v>
-      </c>
+      <c r="O29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M30" t="s">
         <v>11</v>
       </c>
       <c r="N30" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1351,17 +1471,17 @@
       <c r="J31" t="s">
         <v>11</v>
       </c>
-      <c r="L31" t="s">
-        <v>17</v>
-      </c>
       <c r="M31" t="s">
         <v>17</v>
       </c>
       <c r="N31" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>11</v>
       </c>
@@ -1389,17 +1509,17 @@
       <c r="J32" t="s">
         <v>11</v>
       </c>
-      <c r="L32" t="s">
-        <v>17</v>
-      </c>
       <c r="M32" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>11</v>
       </c>
@@ -1427,28 +1547,28 @@
       <c r="J33" t="s">
         <v>11</v>
       </c>
-      <c r="L33" t="s">
-        <v>17</v>
-      </c>
       <c r="M33" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N33" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L34" t="s">
-        <v>17</v>
-      </c>
+      <c r="O33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M34" t="s">
         <v>17</v>
       </c>
       <c r="N34" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1476,17 +1596,17 @@
       <c r="J35" t="s">
         <v>11</v>
       </c>
-      <c r="L35" t="s">
-        <v>17</v>
-      </c>
       <c r="M35" t="s">
         <v>17</v>
       </c>
       <c r="N35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="O35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1514,17 +1634,17 @@
       <c r="J36" t="s">
         <v>11</v>
       </c>
-      <c r="L36" t="s">
-        <v>17</v>
-      </c>
       <c r="M36" t="s">
         <v>17</v>
       </c>
       <c r="N36" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>11</v>
       </c>
@@ -1552,17 +1672,17 @@
       <c r="J37" t="s">
         <v>11</v>
       </c>
-      <c r="L37" t="s">
-        <v>12</v>
-      </c>
       <c r="M37" t="s">
         <v>12</v>
       </c>
       <c r="N37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>11</v>
       </c>
@@ -1590,39 +1710,39 @@
       <c r="J38" t="s">
         <v>11</v>
       </c>
-      <c r="L38" t="s">
-        <v>17</v>
-      </c>
       <c r="M38" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N38" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L39" t="s">
-        <v>11</v>
-      </c>
+      <c r="O38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M39" t="s">
         <v>11</v>
       </c>
       <c r="N39" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L40" t="s">
+      <c r="O39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M40" t="s">
         <v>18</v>
       </c>
-      <c r="M40" t="s">
-        <v>11</v>
-      </c>
       <c r="N40" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>11</v>
       </c>
@@ -1650,17 +1770,17 @@
       <c r="J41" t="s">
         <v>11</v>
       </c>
-      <c r="L41" t="s">
-        <v>11</v>
-      </c>
       <c r="M41" t="s">
         <v>11</v>
       </c>
       <c r="N41" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1688,17 +1808,17 @@
       <c r="J42" t="s">
         <v>11</v>
       </c>
-      <c r="L42" t="s">
-        <v>11</v>
-      </c>
       <c r="M42" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="O42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>11</v>
       </c>
@@ -1726,28 +1846,28 @@
       <c r="J43" t="s">
         <v>11</v>
       </c>
-      <c r="L43" t="s">
-        <v>11</v>
-      </c>
       <c r="M43" t="s">
         <v>11</v>
       </c>
       <c r="N43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L44" t="s">
-        <v>11</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="O43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M44" t="s">
         <v>11</v>
       </c>
       <c r="N44" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>11</v>
       </c>
@@ -1776,7 +1896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>11</v>
       </c>
@@ -1805,7 +1925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -1833,17 +1953,17 @@
       <c r="J47" t="s">
         <v>12</v>
       </c>
-      <c r="L47" t="s">
-        <v>11</v>
-      </c>
       <c r="M47" t="s">
         <v>11</v>
       </c>
       <c r="N47" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>11</v>
       </c>
@@ -1871,28 +1991,28 @@
       <c r="J48" t="s">
         <v>11</v>
       </c>
-      <c r="L48" t="s">
-        <v>17</v>
-      </c>
       <c r="M48" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N48" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L49" t="s">
-        <v>11</v>
-      </c>
+      <c r="O48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M49" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N49" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -1920,17 +2040,17 @@
       <c r="J50" t="s">
         <v>11</v>
       </c>
-      <c r="L50" t="s">
-        <v>17</v>
-      </c>
       <c r="M50" t="s">
         <v>17</v>
       </c>
       <c r="N50" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>11</v>
       </c>
@@ -1958,17 +2078,17 @@
       <c r="J51" t="s">
         <v>11</v>
       </c>
-      <c r="L51" t="s">
-        <v>17</v>
-      </c>
       <c r="M51" t="s">
         <v>17</v>
       </c>
       <c r="N51" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>11</v>
       </c>
@@ -1996,17 +2116,17 @@
       <c r="J52" t="s">
         <v>11</v>
       </c>
-      <c r="L52" t="s">
-        <v>17</v>
-      </c>
       <c r="M52" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="O52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2034,17 +2154,17 @@
       <c r="J53" t="s">
         <v>11</v>
       </c>
-      <c r="L53" t="s">
-        <v>17</v>
-      </c>
       <c r="M53" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N53" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>11</v>
       </c>
@@ -2072,17 +2192,17 @@
       <c r="J54" t="s">
         <v>11</v>
       </c>
-      <c r="L54" t="s">
-        <v>17</v>
-      </c>
       <c r="M54" t="s">
         <v>17</v>
       </c>
       <c r="N54" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>11</v>
       </c>
@@ -2110,17 +2230,17 @@
       <c r="J55" t="s">
         <v>11</v>
       </c>
-      <c r="L55" t="s">
-        <v>17</v>
-      </c>
       <c r="M55" t="s">
         <v>17</v>
       </c>
       <c r="N55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="O55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>11</v>
       </c>
@@ -2148,17 +2268,17 @@
       <c r="J56" t="s">
         <v>12</v>
       </c>
-      <c r="L56" t="s">
-        <v>17</v>
-      </c>
       <c r="M56" t="s">
         <v>17</v>
       </c>
       <c r="N56" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>11</v>
       </c>
@@ -2186,39 +2306,39 @@
       <c r="J57" t="s">
         <v>11</v>
       </c>
-      <c r="L57" t="s">
-        <v>17</v>
-      </c>
       <c r="M57" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L58" t="s">
-        <v>17</v>
-      </c>
+      <c r="O57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M58" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N58" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L59" t="s">
-        <v>11</v>
-      </c>
+      <c r="O58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M59" t="s">
         <v>11</v>
       </c>
       <c r="N59" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>11</v>
       </c>
@@ -2246,17 +2366,17 @@
       <c r="J60" t="s">
         <v>11</v>
       </c>
-      <c r="L60" t="s">
-        <v>17</v>
-      </c>
       <c r="M60" t="s">
         <v>17</v>
       </c>
       <c r="N60" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>11</v>
       </c>
@@ -2284,28 +2404,28 @@
       <c r="J61" t="s">
         <v>11</v>
       </c>
-      <c r="L61" t="s">
-        <v>17</v>
-      </c>
       <c r="M61" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L62" t="s">
-        <v>17</v>
-      </c>
+      <c r="O61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M62" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N62" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>11</v>
       </c>
@@ -2330,17 +2450,17 @@
       <c r="J63" t="s">
         <v>11</v>
       </c>
-      <c r="L63" t="s">
-        <v>11</v>
-      </c>
       <c r="M63" t="s">
         <v>11</v>
       </c>
       <c r="N63" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>12</v>
       </c>
@@ -2368,17 +2488,17 @@
       <c r="J64" t="s">
         <v>11</v>
       </c>
-      <c r="L64" t="s">
-        <v>11</v>
-      </c>
       <c r="M64" t="s">
         <v>11</v>
       </c>
       <c r="N64" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>11</v>
       </c>
@@ -2406,17 +2526,17 @@
       <c r="J65" t="s">
         <v>11</v>
       </c>
-      <c r="L65" t="s">
-        <v>11</v>
-      </c>
       <c r="M65" t="s">
         <v>11</v>
       </c>
       <c r="N65" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>11</v>
       </c>
@@ -2441,28 +2561,28 @@
       <c r="I66" t="s">
         <v>11</v>
       </c>
-      <c r="L66" t="s">
-        <v>11</v>
-      </c>
       <c r="M66" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N66" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L67" t="s">
-        <v>17</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="O66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M67" t="s">
         <v>17</v>
       </c>
       <c r="N67" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>11</v>
       </c>
@@ -2490,28 +2610,28 @@
       <c r="J68" t="s">
         <v>11</v>
       </c>
-      <c r="L68" t="s">
-        <v>17</v>
-      </c>
       <c r="M68" t="s">
         <v>17</v>
       </c>
       <c r="N68" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L69" t="s">
-        <v>17</v>
-      </c>
+      <c r="O68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M69" t="s">
         <v>17</v>
       </c>
       <c r="N69" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>11</v>
       </c>
@@ -2539,17 +2659,17 @@
       <c r="J70" t="s">
         <v>11</v>
       </c>
-      <c r="L70" t="s">
-        <v>11</v>
-      </c>
       <c r="M70" t="s">
         <v>11</v>
       </c>
       <c r="N70" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>11</v>
       </c>
@@ -2578,7 +2698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>11</v>
       </c>
@@ -2606,17 +2726,17 @@
       <c r="J72" t="s">
         <v>11</v>
       </c>
-      <c r="L72" t="s">
-        <v>11</v>
-      </c>
       <c r="M72" t="s">
         <v>11</v>
       </c>
       <c r="N72" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>11</v>
       </c>
@@ -2644,17 +2764,17 @@
       <c r="J73" t="s">
         <v>11</v>
       </c>
-      <c r="L73" t="s">
-        <v>17</v>
-      </c>
       <c r="M73" t="s">
         <v>17</v>
       </c>
       <c r="N73" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>11</v>
       </c>
@@ -2682,17 +2802,17 @@
       <c r="J74" t="s">
         <v>11</v>
       </c>
-      <c r="L74" t="s">
-        <v>12</v>
-      </c>
       <c r="M74" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N74" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="O74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>11</v>
       </c>
@@ -2720,28 +2840,28 @@
       <c r="J75" t="s">
         <v>11</v>
       </c>
-      <c r="L75" t="s">
-        <v>17</v>
-      </c>
       <c r="M75" t="s">
         <v>17</v>
       </c>
       <c r="N75" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L76" t="s">
-        <v>17</v>
-      </c>
+      <c r="O75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M76" t="s">
         <v>17</v>
       </c>
       <c r="N76" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="O76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>11</v>
       </c>
@@ -2769,28 +2889,28 @@
       <c r="J77" t="s">
         <v>11</v>
       </c>
-      <c r="L77" t="s">
-        <v>17</v>
-      </c>
       <c r="M77" t="s">
         <v>17</v>
       </c>
       <c r="N77" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L78" t="s">
-        <v>12</v>
-      </c>
+      <c r="O77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N78" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>11</v>
       </c>
@@ -2818,17 +2938,17 @@
       <c r="J79" t="s">
         <v>11</v>
       </c>
-      <c r="L79" t="s">
-        <v>17</v>
-      </c>
       <c r="M79" t="s">
         <v>17</v>
       </c>
       <c r="N79" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>11</v>
       </c>
@@ -2857,18 +2977,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L81" t="s">
-        <v>11</v>
-      </c>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M81" t="s">
         <v>11</v>
       </c>
       <c r="N81" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>11</v>
       </c>
@@ -2896,17 +3016,17 @@
       <c r="J82" t="s">
         <v>11</v>
       </c>
-      <c r="L82" t="s">
-        <v>17</v>
-      </c>
       <c r="M82" t="s">
         <v>17</v>
       </c>
       <c r="N82" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>11</v>
       </c>
@@ -2934,17 +3054,17 @@
       <c r="J83" t="s">
         <v>11</v>
       </c>
-      <c r="L83" t="s">
-        <v>11</v>
-      </c>
       <c r="M83" t="s">
         <v>11</v>
       </c>
       <c r="N83" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>11</v>
       </c>
@@ -2972,17 +3092,17 @@
       <c r="J84" t="s">
         <v>11</v>
       </c>
-      <c r="L84" t="s">
-        <v>17</v>
-      </c>
       <c r="M84" t="s">
         <v>17</v>
       </c>
       <c r="N84" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>11</v>
       </c>
@@ -3010,17 +3130,17 @@
       <c r="J85" t="s">
         <v>11</v>
       </c>
-      <c r="L85" t="s">
-        <v>12</v>
-      </c>
       <c r="M85" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N85" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>11</v>
       </c>
@@ -3049,7 +3169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>11</v>
       </c>
@@ -3077,17 +3197,17 @@
       <c r="J87" t="s">
         <v>11</v>
       </c>
-      <c r="L87" t="s">
-        <v>17</v>
-      </c>
       <c r="M87" t="s">
         <v>17</v>
       </c>
       <c r="N87" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>11</v>
       </c>
@@ -3115,17 +3235,17 @@
       <c r="J88" t="s">
         <v>11</v>
       </c>
-      <c r="L88" t="s">
-        <v>17</v>
-      </c>
       <c r="M88" t="s">
         <v>17</v>
       </c>
       <c r="N88" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>11</v>
       </c>
@@ -3153,17 +3273,17 @@
       <c r="J89" t="s">
         <v>11</v>
       </c>
-      <c r="L89" t="s">
-        <v>17</v>
-      </c>
       <c r="M89" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N89" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>11</v>
       </c>
@@ -3191,17 +3311,17 @@
       <c r="J90" t="s">
         <v>11</v>
       </c>
-      <c r="L90" t="s">
-        <v>17</v>
-      </c>
       <c r="M90" t="s">
         <v>17</v>
       </c>
       <c r="N90" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>11</v>
       </c>
@@ -3229,28 +3349,28 @@
       <c r="J91" t="s">
         <v>11</v>
       </c>
-      <c r="L91" t="s">
-        <v>17</v>
-      </c>
       <c r="M91" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N91" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L92" t="s">
-        <v>18</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="O91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M92" t="s">
         <v>18</v>
       </c>
       <c r="N92" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="O92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>11</v>
       </c>
@@ -3278,28 +3398,28 @@
       <c r="J93" t="s">
         <v>11</v>
       </c>
-      <c r="L93" t="s">
-        <v>17</v>
-      </c>
       <c r="M93" t="s">
         <v>17</v>
       </c>
       <c r="N93" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L94" t="s">
-        <v>11</v>
-      </c>
+      <c r="O93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M94" t="s">
         <v>11</v>
       </c>
       <c r="N94" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>11</v>
       </c>
@@ -3327,17 +3447,17 @@
       <c r="J95" t="s">
         <v>11</v>
       </c>
-      <c r="L95" t="s">
-        <v>17</v>
-      </c>
       <c r="M95" t="s">
         <v>17</v>
       </c>
       <c r="N95" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>11</v>
       </c>
@@ -3366,7 +3486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>11</v>
       </c>
@@ -3394,17 +3514,17 @@
       <c r="J97" t="s">
         <v>11</v>
       </c>
-      <c r="L97" t="s">
-        <v>11</v>
-      </c>
       <c r="M97" t="s">
         <v>11</v>
       </c>
       <c r="N97" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>11</v>
       </c>
@@ -3432,17 +3552,17 @@
       <c r="J98" t="s">
         <v>11</v>
       </c>
-      <c r="L98" t="s">
-        <v>11</v>
-      </c>
       <c r="M98" t="s">
         <v>11</v>
       </c>
       <c r="N98" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>11</v>
       </c>
@@ -3470,17 +3590,17 @@
       <c r="J99" t="s">
         <v>11</v>
       </c>
-      <c r="L99" t="s">
-        <v>11</v>
-      </c>
       <c r="M99" t="s">
         <v>11</v>
       </c>
       <c r="N99" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>12</v>
       </c>
@@ -3508,17 +3628,17 @@
       <c r="J100" t="s">
         <v>11</v>
       </c>
-      <c r="L100" t="s">
-        <v>11</v>
-      </c>
       <c r="M100" t="s">
         <v>11</v>
       </c>
       <c r="N100" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>11</v>
       </c>
@@ -3546,17 +3666,17 @@
       <c r="J101" t="s">
         <v>11</v>
       </c>
-      <c r="L101" t="s">
-        <v>11</v>
-      </c>
       <c r="M101" t="s">
         <v>11</v>
       </c>
       <c r="N101" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>11</v>
       </c>
@@ -3585,18 +3705,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L103" t="s">
-        <v>17</v>
-      </c>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M103" t="s">
         <v>17</v>
       </c>
       <c r="N103" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>12</v>
       </c>
@@ -3624,17 +3744,17 @@
       <c r="J104" t="s">
         <v>11</v>
       </c>
-      <c r="L104" t="s">
-        <v>17</v>
-      </c>
       <c r="M104" t="s">
         <v>17</v>
       </c>
       <c r="N104" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>11</v>
       </c>
@@ -3663,7 +3783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>11</v>
       </c>
@@ -3692,7 +3812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>11</v>
       </c>
@@ -3721,7 +3841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>11</v>
       </c>
@@ -3750,7 +3870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>11</v>
       </c>
@@ -3779,7 +3899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>11</v>
       </c>
@@ -3808,7 +3928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>11</v>
       </c>
@@ -3837,7 +3957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>11</v>
       </c>
@@ -3866,7 +3986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>11</v>
       </c>
@@ -3895,7 +4015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>11</v>
       </c>
@@ -3924,7 +4044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>11</v>
       </c>
@@ -3953,7 +4073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>11</v>
       </c>
@@ -3982,7 +4102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>11</v>
       </c>
@@ -4011,7 +4131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>11</v>
       </c>
@@ -4040,7 +4160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>11</v>
       </c>
@@ -4069,7 +4189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>11</v>
       </c>
@@ -4098,7 +4218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>11</v>
       </c>
@@ -4127,7 +4247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>11</v>
       </c>
@@ -4156,7 +4276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>11</v>
       </c>
@@ -4185,7 +4305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>11</v>
       </c>
@@ -4214,7 +4334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>11</v>
       </c>
@@ -4243,7 +4363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>11</v>
       </c>
@@ -4272,7 +4392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>11</v>
       </c>
@@ -4301,7 +4421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>11</v>
       </c>
@@ -4330,7 +4450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>11</v>
       </c>
@@ -4359,7 +4479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>11</v>
       </c>
@@ -4388,7 +4508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>11</v>
       </c>
@@ -4417,7 +4537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>11</v>
       </c>
@@ -4446,7 +4566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>11</v>
       </c>
@@ -4475,7 +4595,481 @@
         <v>11</v>
       </c>
     </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>18</v>
+      </c>
+      <c r="B145">
+        <f>COUNTIF(B$1:B$142,$A145)</f>
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <f>COUNTIF(C$1:C$142,$A145)</f>
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <f>COUNTIF(D$1:D$142,$A145)</f>
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <f>COUNTIF(E$1:E$142,$A145)</f>
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <f>COUNTIF(F$1:F$142,$A145)</f>
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <f>COUNTIF(G$1:G$142,$A145)</f>
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <f>COUNTIF(H$1:H$142,$A145)</f>
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <f>COUNTIF(I$1:I$142,$A145)</f>
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <f>COUNTIF(J$1:J$142,$A145)</f>
+        <v>0</v>
+      </c>
+      <c r="K145" s="1">
+        <f>AVERAGE(B145:J145)</f>
+        <v>0</v>
+      </c>
+      <c r="L145" t="s">
+        <v>18</v>
+      </c>
+      <c r="M145">
+        <f>COUNTIF(M$1:M$142,$A145)</f>
+        <v>2</v>
+      </c>
+      <c r="N145">
+        <f>COUNTIF(N$1:N$142,$A145)</f>
+        <v>1</v>
+      </c>
+      <c r="O145">
+        <f>COUNTIF(O$1:O$142,$A145)</f>
+        <v>0</v>
+      </c>
+      <c r="P145" s="1">
+        <f>AVERAGE(M145:O145)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146">
+        <f>COUNTIF(B$1:B$142,$A146)</f>
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <f>COUNTIF(C$1:C$142,$A146)</f>
+        <v>8</v>
+      </c>
+      <c r="D146">
+        <f>COUNTIF(D$1:D$142,$A146)</f>
+        <v>24</v>
+      </c>
+      <c r="E146">
+        <f>COUNTIF(E$1:E$142,$A146)</f>
+        <v>13</v>
+      </c>
+      <c r="F146">
+        <f>COUNTIF(F$1:F$142,$A146)</f>
+        <v>2</v>
+      </c>
+      <c r="G146">
+        <f>COUNTIF(G$1:G$142,$A146)</f>
+        <v>15</v>
+      </c>
+      <c r="H146">
+        <f>COUNTIF(H$1:H$142,$A146)</f>
+        <v>10</v>
+      </c>
+      <c r="I146">
+        <f>COUNTIF(I$1:I$142,$A146)</f>
+        <v>6</v>
+      </c>
+      <c r="J146">
+        <f>COUNTIF(J$1:J$142,$A146)</f>
+        <v>3</v>
+      </c>
+      <c r="K146" s="1">
+        <f t="shared" ref="K146:K148" si="0">AVERAGE(B146:J146)</f>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="L146" t="s">
+        <v>12</v>
+      </c>
+      <c r="M146">
+        <f>COUNTIF(M$1:M$142,$A146)</f>
+        <v>6</v>
+      </c>
+      <c r="N146">
+        <f>COUNTIF(N$1:N$142,$A146)</f>
+        <v>3</v>
+      </c>
+      <c r="O146">
+        <f>COUNTIF(O$1:O$142,$A146)</f>
+        <v>6</v>
+      </c>
+      <c r="P146" s="1">
+        <f t="shared" ref="P146:P148" si="1">AVERAGE(M146:O146)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147">
+        <f>COUNTIF(B$1:B$142,$A147)</f>
+        <v>105</v>
+      </c>
+      <c r="C147">
+        <f>COUNTIF(C$1:C$142,$A147)</f>
+        <v>100</v>
+      </c>
+      <c r="D147">
+        <f>COUNTIF(D$1:D$142,$A147)</f>
+        <v>84</v>
+      </c>
+      <c r="E147">
+        <f>COUNTIF(E$1:E$142,$A147)</f>
+        <v>95</v>
+      </c>
+      <c r="F147">
+        <f>COUNTIF(F$1:F$142,$A147)</f>
+        <v>106</v>
+      </c>
+      <c r="G147">
+        <f>COUNTIF(G$1:G$142,$A147)</f>
+        <v>93</v>
+      </c>
+      <c r="H147">
+        <f>COUNTIF(H$1:H$142,$A147)</f>
+        <v>98</v>
+      </c>
+      <c r="I147">
+        <f>COUNTIF(I$1:I$142,$A147)</f>
+        <v>101</v>
+      </c>
+      <c r="J147">
+        <f>COUNTIF(J$1:J$142,$A147)</f>
+        <v>104</v>
+      </c>
+      <c r="K147" s="1">
+        <f t="shared" si="0"/>
+        <v>98.444444444444443</v>
+      </c>
+      <c r="L147" t="s">
+        <v>11</v>
+      </c>
+      <c r="M147">
+        <f>COUNTIF(M$1:M$142,$A147)</f>
+        <v>31</v>
+      </c>
+      <c r="N147">
+        <f>COUNTIF(N$1:N$142,$A147)</f>
+        <v>45</v>
+      </c>
+      <c r="O147">
+        <f>COUNTIF(O$1:O$142,$A147)</f>
+        <v>50</v>
+      </c>
+      <c r="P147" s="1">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>17</v>
+      </c>
+      <c r="B148">
+        <f>COUNTIF(B$1:B$142,$A148)</f>
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <f>COUNTIF(C$1:C$142,$A148)</f>
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <f>COUNTIF(D$1:D$142,$A148)</f>
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <f>COUNTIF(E$1:E$142,$A148)</f>
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <f>COUNTIF(F$1:F$142,$A148)</f>
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <f>COUNTIF(G$1:G$142,$A148)</f>
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <f>COUNTIF(H$1:H$142,$A148)</f>
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <f>COUNTIF(I$1:I$142,$A148)</f>
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <f>COUNTIF(J$1:J$142,$A148)</f>
+        <v>0</v>
+      </c>
+      <c r="K148" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L148" t="s">
+        <v>17</v>
+      </c>
+      <c r="M148">
+        <f>COUNTIF(M$1:M$142,$A148)</f>
+        <v>51</v>
+      </c>
+      <c r="N148">
+        <f>COUNTIF(N$1:N$142,$A148)</f>
+        <v>41</v>
+      </c>
+      <c r="O148">
+        <f>COUNTIF(O$1:O$142,$A148)</f>
+        <v>34</v>
+      </c>
+      <c r="P148" s="1">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149">
+        <f>SUM(B145:B148)</f>
+        <v>108</v>
+      </c>
+      <c r="C149">
+        <f t="shared" ref="C149:G149" si="2">SUM(C145:C148)</f>
+        <v>108</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="H149">
+        <f t="shared" ref="H149:J149" si="3">SUM(H145:H148)</f>
+        <v>108</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="L149" t="s">
+        <v>19</v>
+      </c>
+      <c r="M149">
+        <f>SUM(M145:M148)</f>
+        <v>90</v>
+      </c>
+      <c r="N149">
+        <f t="shared" ref="N149:U149" si="4">SUM(N145:N148)</f>
+        <v>90</v>
+      </c>
+      <c r="O149">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A145:J149 K145:K148">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+      <formula>"Strongly Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+      <formula>"Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+      <formula>"Agree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+      <formula>"Strongly Agree"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B145:J148">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{995DD507-3ADB-D541-BF9A-35FD8AAB425C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K145:K148">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8A826577-C8E6-0646-B2B8-984C9E275AD1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L145:U149">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"Strongly Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+      <formula>"Agree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+      <formula>"Strongly Agree"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M145:O148 Q145:U148">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{09C86DB4-4040-9141-85B3-95F258633619}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P145:P148">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5891F6CC-2731-B841-8BE9-058C7F47752C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:J140">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"Strongly Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"Agree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"Strongly Agree"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:O104">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Strongly Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Agree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Strongly Agree"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{995DD507-3ADB-D541-BF9A-35FD8AAB425C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B145:J148</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8A826577-C8E6-0646-B2B8-984C9E275AD1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K145:K148</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{09C86DB4-4040-9141-85B3-95F258633619}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M145:O148 Q145:U148</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5891F6CC-2731-B841-8BE9-058C7F47752C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P145:P148</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>